--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1EAA1-E1A4-704A-9044-11349CF96252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED4B074-3A41-FE4B-80C8-10489A2636E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="560" windowWidth="16720" windowHeight="20380" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED4B074-3A41-FE4B-80C8-10489A2636E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2231B5A-1AC0-914D-94C8-ED8849165CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="560" windowWidth="16720" windowHeight="20380" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="68300" yWindow="560" windowWidth="34020" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Directeur technique</t>
   </si>
@@ -60,51 +58,6 @@
     <t>equipe_fr</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>États-Unis</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nouvelle-Zélande</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>KW Cycling</t>
-  </si>
-  <si>
-    <t>Cycling BC</t>
-  </si>
-  <si>
-    <t>S.T.K. Cycling</t>
-  </si>
-  <si>
-    <t>Toronto Hustle Junior Cycling</t>
-  </si>
-  <si>
-    <t>Subway</t>
-  </si>
-  <si>
-    <t>Espoir Laval</t>
-  </si>
-  <si>
-    <t>Québec</t>
-  </si>
-  <si>
-    <t>Vantaggio Fitness and Nutirition</t>
-  </si>
-  <si>
-    <t>Northstar Developpement Cycling</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -114,15 +67,6 @@
     <t>Clinique médicale</t>
   </si>
   <si>
-    <t>Physiotherapy clinic</t>
-  </si>
-  <si>
-    <t>Clinique physiothérapeutre</t>
-  </si>
-  <si>
-    <t>Massothérapeutre</t>
-  </si>
-  <si>
     <t>Massage therapy</t>
   </si>
   <si>
@@ -145,13 +89,127 @@
   </si>
   <si>
     <t>Accompagnatrices féminines</t>
+  </si>
+  <si>
+    <t>KW Cycling Academy</t>
+  </si>
+  <si>
+    <t>Ignite Jr Cycling</t>
+  </si>
+  <si>
+    <t>Équipe cycliste Québec</t>
+  </si>
+  <si>
+    <t>Club ZVP Opto-réseau</t>
+  </si>
+  <si>
+    <t>Équipe cycliste Subway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espoirs Quilicot </t>
+  </si>
+  <si>
+    <t>Vantaggio Fitness and Nutrition</t>
+  </si>
+  <si>
+    <t>NorthStar Development Cycling</t>
+  </si>
+  <si>
+    <t>Équipe nationale de France</t>
+  </si>
+  <si>
+    <t>USA National Team</t>
+  </si>
+  <si>
+    <t>Japan Cycling Academy</t>
+  </si>
+  <si>
+    <t>Équipe nationale d'Algérie</t>
+  </si>
+  <si>
+    <t>Équipe nationale du Canada</t>
+  </si>
+  <si>
+    <t>Accréditation</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Cafétéria</t>
+  </si>
+  <si>
+    <t>Food service</t>
+  </si>
+  <si>
+    <t>Massothérapeute</t>
+  </si>
+  <si>
+    <t>Showers</t>
+  </si>
+  <si>
+    <t>Douches</t>
+  </si>
+  <si>
+    <t>Accreditation</t>
+  </si>
+  <si>
+    <t>Local pour isolation (COVID 19)</t>
+  </si>
+  <si>
+    <t>Isolation room (COVID 19)</t>
+  </si>
+  <si>
+    <t>Team Manitoba</t>
+  </si>
+  <si>
+    <t>TVGO</t>
+  </si>
+  <si>
+    <t>room_en</t>
+  </si>
+  <si>
+    <t>room_fr</t>
+  </si>
+  <si>
+    <t>1030&lt;br/&gt;Magoshan</t>
+  </si>
+  <si>
+    <t>1100&lt;br/&gt;Agora</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>0200 et &lt;br/&gt;Vestiaires piscine</t>
+  </si>
+  <si>
+    <t>0200 and &lt;br/&gt;pool changing room</t>
+  </si>
+  <si>
+    <t>1082&lt;br/&gt;Agora back-stage</t>
+  </si>
+  <si>
+    <t>1082&lt;br/&gt;Agora - arrière scène</t>
+  </si>
+  <si>
+    <t>commite_en</t>
+  </si>
+  <si>
+    <t>commite_fr</t>
+  </si>
+  <si>
+    <t>Gala des mérites&lt;br/&gt; Cegep de l'Abitibi-Témiscamingue</t>
+  </si>
+  <si>
+    <t>Awards ceremony&lt;br/&gt; Cegep de l'Abitibi-Témiscamingue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +229,24 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -204,6 +280,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +317,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,11 +613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72262817-9D66-6D48-97C4-5126E8F8BB18}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="32.33203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
@@ -542,172 +635,183 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B11" si="0">A2</f>
+        <v>Équipe nationale de France</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>A3</f>
-        <v>France</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>Équipe nationale du Canada</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>USA National Team</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3051</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
+      <c r="A5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>A5</f>
-        <v>Canada</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>Japan Cycling Academy</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>A6</f>
-        <v>KW Cycling</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>Équipe nationale d'Algérie</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>A7</f>
-        <v>Cycling BC</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>Équipe cycliste Québec</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>A8</f>
-        <v>S.T.K. Cycling</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>Équipe cycliste Subway</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>A9</f>
-        <v>Toronto Hustle Junior Cycling</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Espoirs Quilicot </v>
+      </c>
+      <c r="C9" s="4">
+        <v>2151</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
+      <c r="A10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>A10</f>
-        <v>Subway</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>Club ZVP Opto-réseau</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2131</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ignite Jr Cycling</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f>A11</f>
-        <v>Espoir Laval</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="2" t="str">
-        <f>A12</f>
-        <v>Québec</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
+        <f t="shared" ref="B12" si="1">A12</f>
+        <v>KW Cycling Academy</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>A13</f>
-        <v>Vantaggio Fitness and Nutirition</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>Team Manitoba</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>A14</f>
-        <v>Northstar Developpement Cycling</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
+        <v>NorthStar Development Cycling</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" ref="B15" si="2">A15</f>
+        <v>Vantaggio Fitness and Nutrition</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1380</v>
+      </c>
     </row>
     <row r="17" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -732,179 +836,276 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="32.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="54.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>A2</f>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>A3</f>
         <v>Administration</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D12" si="0">C3</f>
+        <v>1030&lt;br/&gt;Magoshan</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1100&lt;br/&gt;Agora</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1230</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1230</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1350</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1580</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2152</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3230</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1190</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15</f>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="20" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
+      <c r="C22" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="C4:C14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2231B5A-1AC0-914D-94C8-ED8849165CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165112C-C542-AF46-80D4-6F10F4FFFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68300" yWindow="560" windowWidth="34020" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="68300" yWindow="560" windowWidth="34020" windowHeight="28180" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Directeur technique</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Japan Cycling Academy</t>
-  </si>
-  <si>
-    <t>Équipe nationale d'Algérie</t>
   </si>
   <si>
     <t>Équipe nationale du Canada</t>
@@ -611,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72262817-9D66-6D48-97C4-5126E8F8BB18}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +636,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B11" si="0">A2</f>
+        <f t="shared" ref="B2:B10" si="0">A2</f>
         <v>Équipe nationale de France</v>
       </c>
       <c r="C2" s="4">
@@ -648,7 +645,7 @@
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -682,138 +679,129 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Équipe nationale d'Algérie</v>
+        <v>Équipe cycliste Québec</v>
       </c>
       <c r="C6" s="4">
-        <v>3140</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Équipe cycliste Québec</v>
+        <v>Équipe cycliste Subway</v>
       </c>
       <c r="C7" s="4">
-        <v>2120</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Équipe cycliste Subway</v>
+        <v xml:space="preserve">Espoirs Quilicot </v>
       </c>
       <c r="C8" s="4">
-        <v>2133</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Espoirs Quilicot </v>
+        <v>Club ZVP Opto-réseau</v>
       </c>
       <c r="C9" s="4">
-        <v>2151</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Club ZVP Opto-réseau</v>
+        <v>Ignite Jr Cycling</v>
       </c>
       <c r="C10" s="4">
-        <v>2131</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ignite Jr Cycling</v>
+        <f t="shared" ref="B11" si="1">A11</f>
+        <v>KW Cycling Academy</v>
       </c>
       <c r="C11" s="4">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" ref="B12" si="1">A12</f>
-        <v>KW Cycling Academy</v>
+        <f>A12</f>
+        <v>Team Manitoba</v>
       </c>
       <c r="C12" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>A13</f>
-        <v>Team Manitoba</v>
+        <v>NorthStar Development Cycling</v>
       </c>
       <c r="C13" s="4">
-        <v>2171</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
+      <c r="A14" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>A14</f>
-        <v>NorthStar Development Cycling</v>
+        <f t="shared" ref="B14" si="2">A14</f>
+        <v>Vantaggio Fitness and Nutrition</v>
       </c>
       <c r="C14" s="4">
-        <v>2173</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f t="shared" ref="B15" si="2">A15</f>
-        <v>Vantaggio Fitness and Nutrition</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C15" s="1">
         <v>1380</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -830,9 +818,6 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -859,30 +844,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -894,7 +879,7 @@
         <v>Administration</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D12" si="0">C3</f>
@@ -918,13 +903,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -936,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>1200</v>
@@ -1023,10 +1008,10 @@
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>3230</v>
@@ -1038,38 +1023,38 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>1190</v>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165112C-C542-AF46-80D4-6F10F4FFFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7E4D4-FD4E-7B49-B494-B12E3781F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68300" yWindow="560" windowWidth="34020" windowHeight="28180" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="34260" yWindow="500" windowWidth="34020" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Directeur technique</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>Awards ceremony&lt;br/&gt; Cegep de l'Abitibi-Témiscamingue</t>
+  </si>
+  <si>
+    <t>Sécurité Valcourt</t>
+  </si>
+  <si>
+    <t>Valcourt Securtiy services</t>
+  </si>
+  <si>
+    <t>Douches pour CO</t>
+  </si>
+  <si>
+    <t>0240&lt;br/&gt;0250</t>
+  </si>
+  <si>
+    <t>Volunteers showers</t>
   </si>
 </sst>
 </file>
@@ -610,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72262817-9D66-6D48-97C4-5126E8F8BB18}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -829,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,24 +1080,48 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3110</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16</f>
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>C17</f>
+        <v>0240&lt;br/&gt;0250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="10"/>
     </row>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7E4D4-FD4E-7B49-B494-B12E3781F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCEE11E-CC67-B247-A585-11673953D554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="500" windowWidth="34020" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,11 +939,11 @@
         <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>1200</v>
+        <v>1580</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -954,11 +954,11 @@
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -969,11 +969,11 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -999,11 +999,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1580</v>
+        <v>1230</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1580</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCEE11E-CC67-B247-A585-11673953D554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278431E-E61A-E04C-9BCB-BA09C11901B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="3420" yWindow="1480" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -211,10 +211,10 @@
     <t>Douches pour CO</t>
   </si>
   <si>
-    <t>0240&lt;br/&gt;0250</t>
-  </si>
-  <si>
     <t>Volunteers showers</t>
+  </si>
+  <si>
+    <t>0240</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,17 +1096,17 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
+      <c r="C17" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>C17</f>
-        <v>0240&lt;br/&gt;0250</v>
+        <v>0240</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2023/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278431E-E61A-E04C-9BCB-BA09C11901B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E3FEE-FE15-9E4B-B607-5A05D0D1D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1480" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -196,12 +196,6 @@
     <t>commite_fr</t>
   </si>
   <si>
-    <t>Gala des mérites&lt;br/&gt; Cegep de l'Abitibi-Témiscamingue</t>
-  </si>
-  <si>
-    <t>Awards ceremony&lt;br/&gt; Cegep de l'Abitibi-Témiscamingue</t>
-  </si>
-  <si>
     <t>Sécurité Valcourt</t>
   </si>
   <si>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>0240</t>
+  </si>
+  <si>
+    <t>Gala des mérites&lt;br/&gt;CMAC-Thyssen</t>
+  </si>
+  <si>
+    <t>CMAC-Thyssen&lt;br/&gt;Awards ceremony</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>45</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
         <v>3110</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>C17</f>
